--- a/data/2020-06-16/SCW Weekly Comp 2020-06-16 (Responses).xlsx
+++ b/data/2020-06-16/SCW Weekly Comp 2020-06-16 (Responses).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-06-16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8D6E87-114D-41DD-A08C-A74C61B4124B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020F8FBB-CF15-424B-A328-E2265EB385E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1515,9 +1515,9 @@
   </sheetPr>
   <dimension ref="A1:CY118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN55" sqref="AN55"/>
+      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1527,7 +1527,7 @@
     <col min="7" max="109" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>43998.582043414353</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>19.03</v>
       </c>
     </row>
-    <row r="3" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>43998.585593796292</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>8.1199999999999992</v>
       </c>
     </row>
-    <row r="4" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>43998.590599884265</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>43998.595952951393</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>49.44</v>
       </c>
     </row>
-    <row r="6" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>43998.628187557872</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>43998.633437569442</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>24.12</v>
       </c>
     </row>
-    <row r="8" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>43998.710005185188</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>8.16</v>
       </c>
     </row>
-    <row r="9" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>43998.711137071761</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>7.05</v>
       </c>
     </row>
-    <row r="10" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>43998.714821122689</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>5.84</v>
       </c>
     </row>
-    <row r="11" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>43998.716571643519</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>14.06</v>
       </c>
     </row>
-    <row r="12" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>43998.718535451393</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>23.99</v>
       </c>
     </row>
-    <row r="13" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>43998.728734571763</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>43998.799923148152</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>43999.669791828703</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="16" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>43999.689027986111</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:88" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>43999.692815567134</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:88" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>43999.754600775464</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:88" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>43999.756815567132</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>20.010000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:88" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>43999.75773597222</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:88" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>43999.780673333335</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>43999.782161990741</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>43999.959637384258</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:88" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>44000.453846701392</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>9.41</v>
       </c>
     </row>
-    <row r="25" spans="1:88" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>44000.457924525464</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:88" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>44000.461594270833</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>10.46</v>
       </c>
     </row>
-    <row r="27" spans="1:88" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>44000.489836273147</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>22.41</v>
       </c>
     </row>
-    <row r="28" spans="1:88" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>44000.571192789357</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:88" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>44000.579519374995</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:88" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>44000.590718587962</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>19.850000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:88" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>44000.5984659838</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>12.64</v>
       </c>
     </row>
-    <row r="32" spans="1:88" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>44000.607911145838</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>34.92</v>
       </c>
     </row>
-    <row r="33" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>44000.675088368051</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="34" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>44000.796446469903</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>44000.839462141201</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>59.02</v>
       </c>
     </row>
-    <row r="36" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>44000.840426423616</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>44000.841155173606</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>44001.003834143514</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>44001.550208854169</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>44001.700096215282</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>56.18</v>
       </c>
     </row>
-    <row r="41" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>44001.766308599537</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>44001.77641175926</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>44001.790162256948</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="44" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>44001.79113518518</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>16.260000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44001.795962418983</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>44001.81498998843</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>50.55</v>
       </c>
     </row>
-    <row r="47" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>44001.815766168977</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>17.07</v>
       </c>
     </row>
-    <row r="48" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>44001.830465219908</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>40.56</v>
       </c>
     </row>
-    <row r="49" spans="1:88" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>44001.831301678241</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>6.35</v>
       </c>
     </row>
-    <row r="50" spans="1:88" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>44001.832072986115</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>40.56</v>
       </c>
     </row>
-    <row r="51" spans="1:88" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>44001.880469571755</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>44001.886231145836</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:88" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>44001.89194050926</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:88" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>44001.925050648148</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="55" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>44001.926274849538</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="56" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>44001.928068148147</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="57" spans="1:88" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>44001.929829583329</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="58" spans="1:88" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>44001.931159675922</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="59" spans="1:88" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>44002.160699108797</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>26.98</v>
       </c>
     </row>
-    <row r="60" spans="1:88" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>44002.482189351853</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="61" spans="1:88" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>44002.482883634264</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>18.53</v>
       </c>
     </row>
-    <row r="62" spans="1:88" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>44002.675692453704</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>43.87</v>
       </c>
     </row>
-    <row r="63" spans="1:88" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>44002.708437002315</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>6.52</v>
       </c>
     </row>
-    <row r="64" spans="1:88" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>44002.709284143522</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>37.07</v>
       </c>
     </row>
-    <row r="65" spans="1:98" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:98" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>44002.709999155093</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>15.82</v>
       </c>
     </row>
-    <row r="66" spans="1:98" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:98" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>44002.711264062498</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="67" spans="1:98" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:98" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>44002.712043657404</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="68" spans="1:98" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:98" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>44002.713505520835</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>14.52</v>
       </c>
     </row>
-    <row r="69" spans="1:98" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:98" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>44002.714238912042</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>17.149999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:98" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:98" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>44002.761654525464</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>12.28</v>
       </c>
     </row>
-    <row r="71" spans="1:98" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:98" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>44002.763098020834</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>43.21</v>
       </c>
     </row>
-    <row r="72" spans="1:98" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:98" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>44002.7728890625</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>35.869999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:98" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:98" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>44002.797607569446</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="74" spans="1:98" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:98" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>44002.804017777773</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>19.54</v>
       </c>
     </row>
-    <row r="75" spans="1:98" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:98" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>44002.805632511576</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>24.67</v>
       </c>
     </row>
-    <row r="76" spans="1:98" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:98" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>44002.806894328707</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>28.27</v>
       </c>
     </row>
-    <row r="77" spans="1:98" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:98" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>44002.809290462959</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:98" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:98" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>44002.810281076388</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:98" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:98" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>44002.848779108797</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="80" spans="1:98" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:98" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>44002.849678472223</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>44002.850537303239</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>44002.859305925929</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>13.26</v>
       </c>
     </row>
-    <row r="83" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>44002.862230300925</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="84" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>44003.0627303125</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>44003.3533665625</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>26.31</v>
       </c>
     </row>
-    <row r="86" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>44003.620525902777</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="87" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>44003.752450740736</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>27.77</v>
       </c>
     </row>
-    <row r="88" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>44003.762465312495</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="89" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>44003.763407615741</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>33.08</v>
       </c>
     </row>
-    <row r="90" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>44003.763694791662</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>166</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>167</v>
@@ -5352,7 +5352,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="91" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>44003.764640740745</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>20.62</v>
       </c>
     </row>
-    <row r="92" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>44003.765560462962</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>24.83</v>
       </c>
     </row>
-    <row r="93" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>44003.826356574078</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="94" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>44003.828816400463</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>14.27</v>
       </c>
     </row>
-    <row r="95" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>44003.842037372684</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="1:103" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>44004.314417800924</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="97" spans="1:93" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:93" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>44004.320835856481</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="98" spans="1:93" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:93" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>44004.381272789353</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:93" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:93" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>44004.599651261575</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="100" spans="1:93" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:93" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>44004.681482037035</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="101" spans="1:93" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:93" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>44004.69246622685</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="102" spans="1:93" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:93" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>44004.696971238431</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:93" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:93" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>44004.698343009259</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>24.88</v>
       </c>
     </row>
-    <row r="104" spans="1:93" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:93" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>44004.722024062503</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="105" spans="1:93" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:93" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>44004.734386226854</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="106" spans="1:93" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:93" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>44004.87488304398</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="107" spans="1:93" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:93" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>44004.876177071761</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>17.22</v>
       </c>
     </row>
-    <row r="108" spans="1:93" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:93" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>44004.894682708335</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>30.12</v>
       </c>
     </row>
-    <row r="109" spans="1:93" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:93" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>44004.902516180555</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>32.28</v>
       </c>
     </row>
-    <row r="110" spans="1:93" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:93" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>44004.920291504633</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="111" spans="1:93" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:93" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>44004.922730763894</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>29.96</v>
       </c>
     </row>
-    <row r="112" spans="1:93" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:93" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>44005.165376643519</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="113" spans="1:88" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>44005.166560740741</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>28.24</v>
       </c>
     </row>
-    <row r="114" spans="1:88" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>44005.168444675925</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="115" spans="1:88" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>44005.169507847226</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>9.5399999999999991</v>
       </c>
     </row>
-    <row r="116" spans="1:88" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>44005.170540983796</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>29.69</v>
       </c>
     </row>
-    <row r="117" spans="1:88" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>44005.264779050922</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>20.54</v>
       </c>
     </row>
-    <row r="118" spans="1:88" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>44005.322182118056</v>
       </c>
@@ -6424,9 +6424,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:DE118" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="4">
+    <filterColumn colId="1">
       <filters>
-        <filter val="6x6x6"/>
+        <filter val="Andy Nicholls"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/2020-06-16/SCW Weekly Comp 2020-06-16 (Responses).xlsx
+++ b/data/2020-06-16/SCW Weekly Comp 2020-06-16 (Responses).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-06-16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020F8FBB-CF15-424B-A328-E2265EB385E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70910575-7FBF-44EF-9024-D962D4955FD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Form Responses 1'!$A$1:$DE$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Form Responses 1'!$A$1:$DE$115</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="401">
   <si>
     <t>Timestamp</t>
   </si>
@@ -847,19 +847,10 @@
     <t>https://m.facebook.com/events/256188575607890?view=permalink&amp;id=259049098655171</t>
   </si>
   <si>
-    <t>Consistent</t>
-  </si>
-  <si>
     <t>2:04.17</t>
   </si>
   <si>
-    <t>2:09.60</t>
-  </si>
-  <si>
     <t>2:02.20</t>
-  </si>
-  <si>
-    <t>2:05.32</t>
   </si>
   <si>
     <t>https://www.facebook.com/events/604103587178706/permalink/607170430205355/</t>
@@ -1510,14 +1501,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CY118"/>
+  <dimension ref="A1:CY115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A71" sqref="A71:XFD71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1838,7 +1829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>43998.582043414353</v>
       </c>
@@ -1882,7 +1873,7 @@
         <v>19.03</v>
       </c>
     </row>
-    <row r="3" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>43998.585593796292</v>
       </c>
@@ -1926,7 +1917,7 @@
         <v>8.1199999999999992</v>
       </c>
     </row>
-    <row r="4" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>43998.590599884265</v>
       </c>
@@ -1970,7 +1961,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>43998.595952951393</v>
       </c>
@@ -2014,7 +2005,7 @@
         <v>49.44</v>
       </c>
     </row>
-    <row r="6" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>43998.628187557872</v>
       </c>
@@ -2055,7 +2046,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>43998.633437569442</v>
       </c>
@@ -2096,7 +2087,7 @@
         <v>24.12</v>
       </c>
     </row>
-    <row r="8" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>43998.710005185188</v>
       </c>
@@ -2140,7 +2131,7 @@
         <v>8.16</v>
       </c>
     </row>
-    <row r="9" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>43998.711137071761</v>
       </c>
@@ -2184,7 +2175,7 @@
         <v>7.05</v>
       </c>
     </row>
-    <row r="10" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>43998.714821122689</v>
       </c>
@@ -2228,7 +2219,7 @@
         <v>5.84</v>
       </c>
     </row>
-    <row r="11" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>43998.716571643519</v>
       </c>
@@ -2272,7 +2263,7 @@
         <v>14.06</v>
       </c>
     </row>
-    <row r="12" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>43998.718535451393</v>
       </c>
@@ -2316,7 +2307,7 @@
         <v>23.99</v>
       </c>
     </row>
-    <row r="13" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>43998.728734571763</v>
       </c>
@@ -2339,7 +2330,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>43998.799923148152</v>
       </c>
@@ -2374,7 +2365,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>43999.669791828703</v>
       </c>
@@ -2415,7 +2406,7 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="16" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>43999.689027986111</v>
       </c>
@@ -2459,7 +2450,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>43999.692815567134</v>
       </c>
@@ -2503,7 +2494,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>43999.754600775464</v>
       </c>
@@ -2544,7 +2535,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>43999.756815567132</v>
       </c>
@@ -2585,7 +2576,7 @@
         <v>20.010000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>43999.75773597222</v>
       </c>
@@ -2623,7 +2614,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>43999.780673333335</v>
       </c>
@@ -2658,7 +2649,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>43999.782161990741</v>
       </c>
@@ -2693,7 +2684,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>43999.959637384258</v>
       </c>
@@ -2728,7 +2719,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>44000.453846701392</v>
       </c>
@@ -2769,7 +2760,7 @@
         <v>9.41</v>
       </c>
     </row>
-    <row r="25" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>44000.457924525464</v>
       </c>
@@ -2792,7 +2783,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>44000.461594270833</v>
       </c>
@@ -2833,7 +2824,7 @@
         <v>10.46</v>
       </c>
     </row>
-    <row r="27" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>44000.489836273147</v>
       </c>
@@ -2874,7 +2865,7 @@
         <v>22.41</v>
       </c>
     </row>
-    <row r="28" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>44000.571192789357</v>
       </c>
@@ -2918,7 +2909,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>44000.579519374995</v>
       </c>
@@ -2962,7 +2953,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>44000.590718587962</v>
       </c>
@@ -3006,7 +2997,7 @@
         <v>19.850000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>44000.5984659838</v>
       </c>
@@ -3047,7 +3038,7 @@
         <v>12.64</v>
       </c>
     </row>
-    <row r="32" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>44000.607911145838</v>
       </c>
@@ -3088,7 +3079,7 @@
         <v>34.92</v>
       </c>
     </row>
-    <row r="33" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>44000.675088368051</v>
       </c>
@@ -3126,7 +3117,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="34" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>44000.796446469903</v>
       </c>
@@ -3167,7 +3158,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>44000.839462141201</v>
       </c>
@@ -3208,7 +3199,7 @@
         <v>59.02</v>
       </c>
     </row>
-    <row r="36" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>44000.840426423616</v>
       </c>
@@ -3252,7 +3243,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>44000.841155173606</v>
       </c>
@@ -3310,7 +3301,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>44001.550208854169</v>
       </c>
@@ -3345,7 +3336,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>44001.700096215282</v>
       </c>
@@ -3386,7 +3377,7 @@
         <v>56.18</v>
       </c>
     </row>
-    <row r="41" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>44001.766308599537</v>
       </c>
@@ -3427,7 +3418,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>44001.77641175926</v>
       </c>
@@ -3462,7 +3453,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>44001.790162256948</v>
       </c>
@@ -3503,7 +3494,7 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="44" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>44001.79113518518</v>
       </c>
@@ -3544,7 +3535,7 @@
         <v>16.260000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44001.795962418983</v>
       </c>
@@ -3663,7 +3654,7 @@
     </row>
     <row r="48" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>44001.830465219908</v>
+        <v>44001.831301678241</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>166</v>
@@ -3681,30 +3672,30 @@
         <v>201</v>
       </c>
       <c r="H48" s="2">
-        <v>46.1</v>
+        <v>5.24</v>
       </c>
       <c r="I48" s="2">
-        <v>44.67</v>
+        <v>6.79</v>
       </c>
       <c r="J48" s="2">
-        <v>41.3</v>
+        <v>4.96</v>
       </c>
       <c r="K48" s="2">
-        <v>34.43</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="L48" s="2">
-        <v>35.700000000000003</v>
+        <v>7.03</v>
       </c>
       <c r="M48" s="2">
-        <v>34.43</v>
+        <v>4.96</v>
       </c>
       <c r="N48" s="2">
-        <v>40.56</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="49" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>44001.831301678241</v>
+        <v>44001.832072986115</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>166</v>
@@ -3716,161 +3707,155 @@
         <v>167</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="H49" s="2">
-        <v>5.24</v>
-      </c>
-      <c r="I49" s="2">
-        <v>6.79</v>
-      </c>
-      <c r="J49" s="2">
-        <v>4.96</v>
-      </c>
-      <c r="K49" s="2">
-        <v>10.130000000000001</v>
-      </c>
-      <c r="L49" s="2">
-        <v>7.03</v>
-      </c>
-      <c r="M49" s="2">
-        <v>4.96</v>
-      </c>
-      <c r="N49" s="2">
-        <v>6.35</v>
+        <v>202</v>
+      </c>
+      <c r="AT49" s="2">
+        <v>46.1</v>
+      </c>
+      <c r="AU49" s="2">
+        <v>44.67</v>
+      </c>
+      <c r="AV49" s="2">
+        <v>41.3</v>
+      </c>
+      <c r="AW49" s="2">
+        <v>34.43</v>
+      </c>
+      <c r="AX49" s="2">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="AY49" s="2">
+        <v>34.43</v>
+      </c>
+      <c r="AZ49" s="2">
+        <v>40.56</v>
       </c>
     </row>
     <row r="50" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>44001.832072986115</v>
+        <v>44001.880469571755</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="AT50" s="2">
-        <v>46.1</v>
-      </c>
-      <c r="AU50" s="2">
-        <v>44.67</v>
-      </c>
-      <c r="AV50" s="2">
-        <v>41.3</v>
-      </c>
-      <c r="AW50" s="2">
-        <v>34.43</v>
-      </c>
-      <c r="AX50" s="2">
-        <v>35.700000000000003</v>
-      </c>
-      <c r="AY50" s="2">
-        <v>34.43</v>
-      </c>
-      <c r="AZ50" s="2">
-        <v>40.56</v>
-      </c>
-    </row>
-    <row r="51" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+      <c r="CJ50" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>44001.880469571755</v>
+        <v>44001.886231145836</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="E51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ51" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AK51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM51" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AN51" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>44001.89194050926</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F51" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="CJ51" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
-        <v>44001.886231145836</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="F52" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="CJ52" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>44001.925050648148</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="AJ52" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="AK52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM52" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="AN52" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
-        <v>44001.89194050926</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D53" s="2" t="s">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="CJ53" s="2" t="s">
-        <v>38</v>
+        <v>212</v>
+      </c>
+      <c r="AO53" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP53" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ53" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR53" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AS53" s="2" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>44001.925050648148</v>
+        <v>44001.928068148147</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>166</v>
@@ -3882,30 +3867,30 @@
         <v>167</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="AO54" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="AP54" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ54" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR54" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="AS54" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="AJ54" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK54" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL54" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AM54" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN54" s="2" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>44001.926274849538</v>
+        <v>44001.929829583329</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>166</v>
@@ -3917,30 +3902,36 @@
         <v>167</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="AJ55" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="AK55" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="AL55" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AM55" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="AN55" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
+      </c>
+      <c r="AC55" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD55" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE55" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF55" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG55" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH55" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AI55" s="2" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>44001.928068148147</v>
+        <v>44001.931159675922</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>166</v>
@@ -3952,71 +3943,77 @@
         <v>167</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="AJ56" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="AK56" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="AL56" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AM56" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="AN56" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
+      </c>
+      <c r="V56" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="W56" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="X56" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y56" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z56" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA56" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB56" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>44001.929829583329</v>
+        <v>44002.160699108797</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>166</v>
+        <v>267</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="AC57" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AD57" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AE57" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AF57" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="AG57" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="AH57" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="AI57" s="2" t="s">
-        <v>228</v>
+        <v>237</v>
+      </c>
+      <c r="BH57" s="2">
+        <v>25.4</v>
+      </c>
+      <c r="BI57" s="2">
+        <v>23.92</v>
+      </c>
+      <c r="BJ57" s="2">
+        <v>31.62</v>
+      </c>
+      <c r="BK57" s="2">
+        <v>22.27</v>
+      </c>
+      <c r="BL57" s="2">
+        <v>34.86</v>
+      </c>
+      <c r="BM57" s="2">
+        <v>22.27</v>
+      </c>
+      <c r="BN57" s="2">
+        <v>26.98</v>
       </c>
     </row>
     <row r="58" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>44001.931159675922</v>
+        <v>44002.482189351853</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>166</v>
@@ -4028,197 +4025,197 @@
         <v>167</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="V58" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="W58" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="X58" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y58" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z58" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="AA58" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="AB58" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="59" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="BA58" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="BB58" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="BC58" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="BD58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BE58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF58" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="BG58" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="59" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>44002.160699108797</v>
+        <v>44002.482883634264</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>267</v>
+        <v>166</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>236</v>
+        <v>167</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="BH59" s="2">
-        <v>25.4</v>
-      </c>
-      <c r="BI59" s="2">
-        <v>23.92</v>
-      </c>
-      <c r="BJ59" s="2">
-        <v>31.62</v>
-      </c>
-      <c r="BK59" s="2">
-        <v>22.27</v>
-      </c>
-      <c r="BL59" s="2">
-        <v>34.86</v>
-      </c>
-      <c r="BM59" s="2">
-        <v>22.27</v>
-      </c>
-      <c r="BN59" s="2">
-        <v>26.98</v>
+        <v>243</v>
+      </c>
+      <c r="O59" s="2">
+        <v>18.29</v>
+      </c>
+      <c r="P59" s="2">
+        <v>19.63</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>18.59</v>
+      </c>
+      <c r="R59" s="2">
+        <v>18.72</v>
+      </c>
+      <c r="S59" s="2">
+        <v>14.53</v>
+      </c>
+      <c r="T59" s="2">
+        <v>14.53</v>
+      </c>
+      <c r="U59" s="2">
+        <v>18.53</v>
       </c>
     </row>
     <row r="60" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>44002.482189351853</v>
+        <v>44002.675692453704</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>166</v>
+        <v>244</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="BA60" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="BB60" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="BC60" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="BD60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="BE60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="BF60" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="BG60" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
+      </c>
+      <c r="AT60" s="2">
+        <v>39.15</v>
+      </c>
+      <c r="AU60" s="2">
+        <v>43.31</v>
+      </c>
+      <c r="AV60" s="2">
+        <v>44.74</v>
+      </c>
+      <c r="AW60" s="2">
+        <v>43.56</v>
+      </c>
+      <c r="AX60" s="2">
+        <v>48.38</v>
+      </c>
+      <c r="AY60" s="2">
+        <v>39.15</v>
+      </c>
+      <c r="AZ60" s="2">
+        <v>43.87</v>
       </c>
     </row>
     <row r="61" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>44002.482883634264</v>
+        <v>44002.708437002315</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="O61" s="2">
-        <v>18.29</v>
-      </c>
-      <c r="P61" s="2">
-        <v>19.63</v>
-      </c>
-      <c r="Q61" s="2">
-        <v>18.59</v>
-      </c>
-      <c r="R61" s="2">
-        <v>18.72</v>
-      </c>
-      <c r="S61" s="2">
-        <v>14.53</v>
-      </c>
-      <c r="T61" s="2">
-        <v>14.53</v>
-      </c>
-      <c r="U61" s="2">
-        <v>18.53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="H61" s="2">
+        <v>4.79</v>
+      </c>
+      <c r="I61" s="2">
+        <v>6.23</v>
+      </c>
+      <c r="J61" s="2">
+        <v>6.89</v>
+      </c>
+      <c r="K61" s="2">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="L61" s="2">
+        <v>6.43</v>
+      </c>
+      <c r="M61" s="2">
+        <v>4.79</v>
+      </c>
+      <c r="N61" s="2">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>44002.675692453704</v>
+        <v>44002.709284143522</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>244</v>
+        <v>63</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="D62" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="E62" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AT62" s="2">
-        <v>39.15</v>
+        <v>33.4</v>
       </c>
       <c r="AU62" s="2">
-        <v>43.31</v>
+        <v>58.01</v>
       </c>
       <c r="AV62" s="2">
-        <v>44.74</v>
+        <v>37.75</v>
       </c>
       <c r="AW62" s="2">
-        <v>43.56</v>
+        <v>38.54</v>
       </c>
       <c r="AX62" s="2">
-        <v>48.38</v>
+        <v>34.909999999999997</v>
       </c>
       <c r="AY62" s="2">
-        <v>39.15</v>
+        <v>33.4</v>
       </c>
       <c r="AZ62" s="2">
-        <v>43.87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>37.07</v>
+      </c>
+    </row>
+    <row r="63" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>44002.708437002315</v>
+        <v>44002.709999155093</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>63</v>
@@ -4230,36 +4227,36 @@
         <v>65</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="H63" s="2">
-        <v>4.79</v>
-      </c>
-      <c r="I63" s="2">
-        <v>6.23</v>
-      </c>
-      <c r="J63" s="2">
-        <v>6.89</v>
-      </c>
-      <c r="K63" s="2">
-        <v>9.6199999999999992</v>
-      </c>
-      <c r="L63" s="2">
-        <v>6.43</v>
-      </c>
-      <c r="M63" s="2">
-        <v>4.79</v>
-      </c>
-      <c r="N63" s="2">
-        <v>6.52</v>
-      </c>
-    </row>
-    <row r="64" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+      <c r="O63" s="2">
+        <v>18.53</v>
+      </c>
+      <c r="P63" s="2">
+        <v>15.4</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>16.739999999999998</v>
+      </c>
+      <c r="R63" s="2">
+        <v>15.32</v>
+      </c>
+      <c r="S63" s="2">
+        <v>14.32</v>
+      </c>
+      <c r="T63" s="2">
+        <v>14.32</v>
+      </c>
+      <c r="U63" s="2">
+        <v>15.82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>44002.709284143522</v>
+        <v>44002.711264062498</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>63</v>
@@ -4271,36 +4268,39 @@
         <v>65</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="AT64" s="2">
-        <v>33.4</v>
-      </c>
-      <c r="AU64" s="2">
-        <v>58.01</v>
-      </c>
-      <c r="AV64" s="2">
-        <v>37.75</v>
-      </c>
-      <c r="AW64" s="2">
-        <v>38.54</v>
-      </c>
-      <c r="AX64" s="2">
-        <v>34.909999999999997</v>
-      </c>
-      <c r="AY64" s="2">
-        <v>33.4</v>
-      </c>
-      <c r="AZ64" s="2">
-        <v>37.07</v>
-      </c>
-    </row>
-    <row r="65" spans="1:98" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC64" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD64" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AE64" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF64" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="AG64" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH64" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AI64" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="65" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>44002.709999155093</v>
+        <v>44002.712043657404</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>63</v>
@@ -4312,36 +4312,36 @@
         <v>65</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="O65" s="2">
-        <v>18.53</v>
-      </c>
-      <c r="P65" s="2">
-        <v>15.4</v>
-      </c>
-      <c r="Q65" s="2">
-        <v>16.739999999999998</v>
-      </c>
-      <c r="R65" s="2">
-        <v>15.32</v>
-      </c>
-      <c r="S65" s="2">
-        <v>14.32</v>
-      </c>
-      <c r="T65" s="2">
-        <v>14.32</v>
-      </c>
-      <c r="U65" s="2">
-        <v>15.82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:98" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+      <c r="V65" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="W65" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="X65" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y65" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z65" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA65" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB65" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="66" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>44002.711264062498</v>
+        <v>44002.713505520835</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>63</v>
@@ -4353,39 +4353,36 @@
         <v>65</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AC66" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="AD66" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="AE66" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="AF66" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="AG66" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="AH66" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="AI66" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="67" spans="1:98" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+      <c r="BO66" s="2">
+        <v>16.579999999999998</v>
+      </c>
+      <c r="BP66" s="2">
+        <v>18.489999999999998</v>
+      </c>
+      <c r="BQ66" s="2">
+        <v>12.33</v>
+      </c>
+      <c r="BR66" s="2">
+        <v>14.65</v>
+      </c>
+      <c r="BS66" s="2">
+        <v>10.46</v>
+      </c>
+      <c r="BT66" s="2">
+        <v>10.46</v>
+      </c>
+      <c r="BU66" s="2">
+        <v>14.52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>44002.712043657404</v>
+        <v>44002.714238912042</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>63</v>
@@ -4397,121 +4394,124 @@
         <v>65</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="V67" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="W67" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="X67" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y67" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z67" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AA67" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="AB67" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="68" spans="1:98" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="BH67" s="2">
+        <v>15.93</v>
+      </c>
+      <c r="BI67" s="2">
+        <v>15.14</v>
+      </c>
+      <c r="BJ67" s="2">
+        <v>23.13</v>
+      </c>
+      <c r="BK67" s="2">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="BL67" s="2">
+        <v>16.18</v>
+      </c>
+      <c r="BM67" s="2">
+        <v>15.14</v>
+      </c>
+      <c r="BN67" s="2">
+        <v>17.149999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>44002.713505520835</v>
+        <v>44002.761654525464</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>63</v>
+        <v>267</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>65</v>
+        <v>236</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="BO68" s="2">
-        <v>16.579999999999998</v>
-      </c>
-      <c r="BP68" s="2">
-        <v>18.489999999999998</v>
-      </c>
-      <c r="BQ68" s="2">
-        <v>12.33</v>
-      </c>
-      <c r="BR68" s="2">
-        <v>14.65</v>
-      </c>
-      <c r="BS68" s="2">
-        <v>10.46</v>
-      </c>
-      <c r="BT68" s="2">
-        <v>10.46</v>
-      </c>
-      <c r="BU68" s="2">
-        <v>14.52</v>
-      </c>
-    </row>
-    <row r="69" spans="1:98" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+      <c r="H68" s="2">
+        <v>13.06</v>
+      </c>
+      <c r="I68" s="2">
+        <v>13.43</v>
+      </c>
+      <c r="J68" s="2">
+        <v>13.66</v>
+      </c>
+      <c r="K68" s="2">
+        <v>9.07</v>
+      </c>
+      <c r="L68" s="2">
+        <v>10.36</v>
+      </c>
+      <c r="M68" s="2">
+        <v>9.07</v>
+      </c>
+      <c r="N68" s="2">
+        <v>12.28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>44002.714238912042</v>
+        <v>44002.763098020834</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>63</v>
+        <v>267</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>65</v>
+        <v>236</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="BH69" s="2">
-        <v>15.93</v>
-      </c>
-      <c r="BI69" s="2">
-        <v>15.14</v>
-      </c>
-      <c r="BJ69" s="2">
-        <v>23.13</v>
-      </c>
-      <c r="BK69" s="2">
-        <v>19.350000000000001</v>
-      </c>
-      <c r="BL69" s="2">
-        <v>16.18</v>
-      </c>
-      <c r="BM69" s="2">
-        <v>15.14</v>
-      </c>
-      <c r="BN69" s="2">
-        <v>17.149999999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:98" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+      <c r="BO69" s="2">
+        <v>25.74</v>
+      </c>
+      <c r="BP69" s="2">
+        <v>40.5</v>
+      </c>
+      <c r="BQ69" s="2">
+        <v>53.56</v>
+      </c>
+      <c r="BR69" s="2">
+        <v>36.659999999999997</v>
+      </c>
+      <c r="BS69" s="2">
+        <v>52.47</v>
+      </c>
+      <c r="BT69" s="2">
+        <v>25.74</v>
+      </c>
+      <c r="BU69" s="2">
+        <v>43.21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>44002.761654525464</v>
+        <v>44002.7728890625</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>267</v>
@@ -4523,1913 +4523,1778 @@
         <v>236</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="H70" s="2">
-        <v>13.06</v>
-      </c>
-      <c r="I70" s="2">
-        <v>13.43</v>
-      </c>
-      <c r="J70" s="2">
-        <v>13.66</v>
-      </c>
-      <c r="K70" s="2">
-        <v>9.07</v>
-      </c>
-      <c r="L70" s="2">
-        <v>10.36</v>
-      </c>
-      <c r="M70" s="2">
-        <v>9.07</v>
-      </c>
-      <c r="N70" s="2">
-        <v>12.28</v>
-      </c>
-    </row>
-    <row r="71" spans="1:98" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="O70" s="2">
+        <v>29.64</v>
+      </c>
+      <c r="P70" s="2">
+        <v>34.57</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>34.78</v>
+      </c>
+      <c r="R70" s="2">
+        <v>53.56</v>
+      </c>
+      <c r="S70" s="2">
+        <v>38.28</v>
+      </c>
+      <c r="T70" s="2">
+        <v>29.64</v>
+      </c>
+      <c r="U70" s="2">
+        <v>35.869999999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>44002.763098020834</v>
+        <v>44002.804017777773</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>267</v>
+        <v>68</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>236</v>
+        <v>69</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="BO71" s="2">
-        <v>25.74</v>
-      </c>
-      <c r="BP71" s="2">
-        <v>40.5</v>
-      </c>
-      <c r="BQ71" s="2">
-        <v>53.56</v>
-      </c>
-      <c r="BR71" s="2">
-        <v>36.659999999999997</v>
-      </c>
-      <c r="BS71" s="2">
-        <v>52.47</v>
-      </c>
-      <c r="BT71" s="2">
-        <v>25.74</v>
-      </c>
-      <c r="BU71" s="2">
-        <v>43.21</v>
-      </c>
-    </row>
-    <row r="72" spans="1:98" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+      <c r="O71" s="2">
+        <v>22.62</v>
+      </c>
+      <c r="P71" s="2">
+        <v>19.36</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>20.77</v>
+      </c>
+      <c r="R71" s="2">
+        <v>18.489999999999998</v>
+      </c>
+      <c r="S71" s="2">
+        <v>16.82</v>
+      </c>
+      <c r="T71" s="2">
+        <v>16.82</v>
+      </c>
+      <c r="U71" s="2">
+        <v>19.54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>44002.7728890625</v>
+        <v>44002.805632511576</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>267</v>
+        <v>68</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>236</v>
+        <v>69</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="O72" s="2">
-        <v>29.64</v>
-      </c>
-      <c r="P72" s="2">
-        <v>34.57</v>
-      </c>
-      <c r="Q72" s="2">
-        <v>34.78</v>
-      </c>
-      <c r="R72" s="2">
-        <v>53.56</v>
-      </c>
-      <c r="S72" s="2">
-        <v>38.28</v>
-      </c>
-      <c r="T72" s="2">
-        <v>29.64</v>
-      </c>
-      <c r="U72" s="2">
-        <v>35.869999999999997</v>
-      </c>
-    </row>
-    <row r="73" spans="1:98" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+      <c r="BO72" s="2">
+        <v>25.68</v>
+      </c>
+      <c r="BP72" s="2">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="BQ72" s="2">
+        <v>29.7</v>
+      </c>
+      <c r="BR72" s="2">
+        <v>40.159999999999997</v>
+      </c>
+      <c r="BS72" s="2">
+        <v>17.8</v>
+      </c>
+      <c r="BT72" s="2">
+        <v>17.8</v>
+      </c>
+      <c r="BU72" s="2">
+        <v>24.67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>44002.797607569446</v>
+        <v>44002.806894328707</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>267</v>
+        <v>68</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>236</v>
+        <v>69</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="V73" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="W73" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="X73" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA73" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="AB73" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="74" spans="1:98" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="BH73" s="2">
+        <v>16.739999999999998</v>
+      </c>
+      <c r="BI73" s="2">
+        <v>34.31</v>
+      </c>
+      <c r="BJ73" s="2">
+        <v>31.88</v>
+      </c>
+      <c r="BK73" s="2">
+        <v>18.64</v>
+      </c>
+      <c r="BL73" s="2">
+        <v>49.6</v>
+      </c>
+      <c r="BM73" s="2">
+        <v>16.739999999999998</v>
+      </c>
+      <c r="BN73" s="2">
+        <v>28.27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>44002.804017777773</v>
+        <v>44002.809290462959</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="O74" s="2">
-        <v>22.62</v>
-      </c>
-      <c r="P74" s="2">
-        <v>19.36</v>
-      </c>
-      <c r="Q74" s="2">
-        <v>20.77</v>
-      </c>
-      <c r="R74" s="2">
-        <v>18.489999999999998</v>
-      </c>
-      <c r="S74" s="2">
-        <v>16.82</v>
-      </c>
-      <c r="T74" s="2">
-        <v>16.82</v>
-      </c>
-      <c r="U74" s="2">
-        <v>19.54</v>
-      </c>
-    </row>
-    <row r="75" spans="1:98" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G74" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="BV74" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="BW74" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="BX74" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="BY74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BZ74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA74" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="CB74" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>44002.805632511576</v>
+        <v>44002.810281076388</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>68</v>
+        <v>267</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>69</v>
+        <v>236</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="BO75" s="2">
-        <v>25.68</v>
-      </c>
-      <c r="BP75" s="2">
-        <v>18.649999999999999</v>
-      </c>
-      <c r="BQ75" s="2">
-        <v>29.7</v>
-      </c>
-      <c r="BR75" s="2">
-        <v>40.159999999999997</v>
-      </c>
-      <c r="BS75" s="2">
-        <v>17.8</v>
-      </c>
-      <c r="BT75" s="2">
-        <v>17.8</v>
-      </c>
-      <c r="BU75" s="2">
-        <v>24.67</v>
-      </c>
-    </row>
-    <row r="76" spans="1:98" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="AC75" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD75" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="AE75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH75" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="AI75" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>44002.806894328707</v>
+        <v>44002.848779108797</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>68</v>
+        <v>287</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>69</v>
+        <v>288</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="BH76" s="2">
-        <v>16.739999999999998</v>
-      </c>
-      <c r="BI76" s="2">
-        <v>34.31</v>
-      </c>
-      <c r="BJ76" s="2">
-        <v>31.88</v>
-      </c>
-      <c r="BK76" s="2">
-        <v>18.64</v>
-      </c>
-      <c r="BL76" s="2">
-        <v>49.6</v>
-      </c>
-      <c r="BM76" s="2">
-        <v>16.739999999999998</v>
-      </c>
-      <c r="BN76" s="2">
-        <v>28.27</v>
-      </c>
-    </row>
-    <row r="77" spans="1:98" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="CK76" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="CL76" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="CM76" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="CN76" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="CO76" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="77" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>44002.809290462959</v>
+        <v>44002.849678472223</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>63</v>
+        <v>287</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>65</v>
+        <v>288</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="BV77" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="BW77" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="BX77" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="CP77" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="CQ77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CR77" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CS77" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="CT77" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="BY77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="BZ77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="CA77" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="CB77" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="78" spans="1:98" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>44002.810281076388</v>
+        <v>44002.850537303239</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="G78" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="CU78" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="CV78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CW78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CX78" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="CY78" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>44002.859305925929</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="AC78" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="AD78" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="AE78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH78" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="AI78" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="79" spans="1:98" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
-        <v>44002.848779108797</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="CK79" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="CL79" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="CM79" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="CN79" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="CO79" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="80" spans="1:98" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+      <c r="O79" s="2">
+        <v>15.89</v>
+      </c>
+      <c r="P79" s="2">
+        <v>12.44</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>14.19</v>
+      </c>
+      <c r="R79" s="2">
+        <v>13.14</v>
+      </c>
+      <c r="S79" s="2">
+        <v>12</v>
+      </c>
+      <c r="T79" s="2">
+        <v>12</v>
+      </c>
+      <c r="U79" s="2">
+        <v>13.26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>44002.849678472223</v>
+        <v>44002.862230300925</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>291</v>
+        <v>236</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>193</v>
+        <v>78</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="CP80" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="CQ80" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="V80" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="W80" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="X80" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y80" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="CR80" s="2" t="s">
+      <c r="Z80" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="CS80" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="CT80" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="81" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB80" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="81" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
-        <v>44002.850537303239</v>
+        <v>44003.0627303125</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>186</v>
+        <v>66</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="CU81" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="CV81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="CW81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="CX81" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="CY81" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="82" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+      <c r="CJ81" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
-        <v>44002.859305925929</v>
+        <v>44003.3533665625</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="E82" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="O82" s="2">
-        <v>15.89</v>
+        <v>24.11</v>
       </c>
       <c r="P82" s="2">
-        <v>12.44</v>
+        <v>22.95</v>
       </c>
       <c r="Q82" s="2">
-        <v>14.19</v>
+        <v>31.52</v>
       </c>
       <c r="R82" s="2">
-        <v>13.14</v>
+        <v>28.45</v>
       </c>
       <c r="S82" s="2">
-        <v>12</v>
+        <v>26.37</v>
       </c>
       <c r="T82" s="2">
-        <v>12</v>
+        <v>22.95</v>
       </c>
       <c r="U82" s="2">
-        <v>13.26</v>
-      </c>
-    </row>
-    <row r="83" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>26.31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
-        <v>44002.862230300925</v>
+        <v>44003.620525902777</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>267</v>
+        <v>166</v>
       </c>
       <c r="C83" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="CU83" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="CV83" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="CW83" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CX83" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="CY83" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>44003.752450740736</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="V83" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="W83" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="X83" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y83" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z83" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA83" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="AB83" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="84" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="3">
-        <v>44003.0627303125</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>309</v>
+      <c r="D84" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>66</v>
+        <v>199</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="CJ84" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="85" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="CC84" s="2">
+        <v>21.83</v>
+      </c>
+      <c r="CD84" s="2">
+        <v>38.42</v>
+      </c>
+      <c r="CE84" s="2">
+        <v>23.06</v>
+      </c>
+      <c r="CF84" s="2">
+        <v>21.27</v>
+      </c>
+      <c r="CG84" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="CH84" s="2">
+        <v>21.27</v>
+      </c>
+      <c r="CI84" s="2">
+        <v>27.77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
-        <v>44003.3533665625</v>
+        <v>44003.762465312495</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>244</v>
+        <v>314</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>64</v>
+        <v>146</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="O85" s="2">
-        <v>24.11</v>
-      </c>
-      <c r="P85" s="2">
-        <v>22.95</v>
-      </c>
-      <c r="Q85" s="2">
-        <v>31.52</v>
-      </c>
-      <c r="R85" s="2">
-        <v>28.45</v>
-      </c>
-      <c r="S85" s="2">
-        <v>26.37</v>
-      </c>
-      <c r="T85" s="2">
-        <v>22.95</v>
-      </c>
-      <c r="U85" s="2">
-        <v>26.31</v>
+        <v>316</v>
+      </c>
+      <c r="H85" s="2">
+        <v>7.33</v>
+      </c>
+      <c r="I85" s="2">
+        <v>6.84</v>
+      </c>
+      <c r="J85" s="2">
+        <v>13.15</v>
+      </c>
+      <c r="K85" s="2">
+        <v>10.4</v>
+      </c>
+      <c r="L85" s="2">
+        <v>8.66</v>
+      </c>
+      <c r="M85" s="2">
+        <v>6.84</v>
+      </c>
+      <c r="N85" s="2">
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="86" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
-        <v>44003.620525902777</v>
+        <v>44003.763407615741</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="O86" s="2">
+        <v>31.75</v>
+      </c>
+      <c r="P86" s="2">
+        <v>34.24</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>29.43</v>
+      </c>
+      <c r="R86" s="2">
+        <v>33.26</v>
+      </c>
+      <c r="S86" s="2">
+        <v>34.67</v>
+      </c>
+      <c r="T86" s="2">
+        <v>29.43</v>
+      </c>
+      <c r="U86" s="2">
+        <v>33.08</v>
+      </c>
+    </row>
+    <row r="87" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>44003.763694791662</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="CU86" s="2" t="s">
+      <c r="E87" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="CP87" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="CV86" s="2" t="s">
+      <c r="CQ87" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="CW86" s="2" t="s">
+      <c r="CR87" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="CS87" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="CT87" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>44003.764640740745</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="CX86" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="CY86" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="87" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="3">
-        <v>44003.752450740736</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="CC87" s="2">
-        <v>21.83</v>
-      </c>
-      <c r="CD87" s="2">
-        <v>38.42</v>
-      </c>
-      <c r="CE87" s="2">
-        <v>23.06</v>
-      </c>
-      <c r="CF87" s="2">
-        <v>21.27</v>
-      </c>
-      <c r="CG87" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="CH87" s="2">
-        <v>21.27</v>
-      </c>
-      <c r="CI87" s="2">
-        <v>27.77</v>
-      </c>
-    </row>
-    <row r="88" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="3">
-        <v>44003.762465312495</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>317</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>146</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="H88" s="2">
-        <v>7.33</v>
-      </c>
-      <c r="I88" s="2">
-        <v>6.84</v>
-      </c>
-      <c r="J88" s="2">
-        <v>13.15</v>
-      </c>
-      <c r="K88" s="2">
-        <v>10.4</v>
-      </c>
-      <c r="L88" s="2">
-        <v>8.66</v>
-      </c>
-      <c r="M88" s="2">
-        <v>6.84</v>
-      </c>
-      <c r="N88" s="2">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="89" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+      <c r="BH88" s="2">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="BI88" s="2">
+        <v>23.21</v>
+      </c>
+      <c r="BJ88" s="2">
+        <v>21.95</v>
+      </c>
+      <c r="BK88" s="2">
+        <v>11.08</v>
+      </c>
+      <c r="BL88" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="BM88" s="2">
+        <v>11.08</v>
+      </c>
+      <c r="BN88" s="2">
+        <v>20.62</v>
+      </c>
+    </row>
+    <row r="89" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
-        <v>44003.763407615741</v>
+        <v>44003.765560462962</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>146</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="O89" s="2">
-        <v>31.75</v>
-      </c>
-      <c r="P89" s="2">
-        <v>34.24</v>
-      </c>
-      <c r="Q89" s="2">
-        <v>29.43</v>
-      </c>
-      <c r="R89" s="2">
-        <v>33.26</v>
-      </c>
-      <c r="S89" s="2">
-        <v>34.67</v>
-      </c>
-      <c r="T89" s="2">
-        <v>29.43</v>
-      </c>
-      <c r="U89" s="2">
-        <v>33.08</v>
+        <v>322</v>
+      </c>
+      <c r="CC89" s="2">
+        <v>25.57</v>
+      </c>
+      <c r="CD89" s="2">
+        <v>22.23</v>
+      </c>
+      <c r="CE89" s="2">
+        <v>26.48</v>
+      </c>
+      <c r="CF89" s="2">
+        <v>22.45</v>
+      </c>
+      <c r="CG89" s="2">
+        <v>50.37</v>
+      </c>
+      <c r="CH89" s="2">
+        <v>22.23</v>
+      </c>
+      <c r="CI89" s="2">
+        <v>24.83</v>
       </c>
     </row>
     <row r="90" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
-        <v>44003.763694791662</v>
+        <v>44003.826356574078</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>166</v>
+        <v>323</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>167</v>
+        <v>324</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="CP90" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="CQ90" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="CR90" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="CS90" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="CT90" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="91" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="AC90" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="AD90" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="AE90" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF90" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="AG90" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="AH90" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="AI90" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="91" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
-        <v>44003.764640740745</v>
+        <v>44003.828816400463</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>146</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="BH91" s="2">
-        <v>16.690000000000001</v>
-      </c>
-      <c r="BI91" s="2">
-        <v>23.21</v>
-      </c>
-      <c r="BJ91" s="2">
-        <v>21.95</v>
-      </c>
-      <c r="BK91" s="2">
-        <v>11.08</v>
-      </c>
-      <c r="BL91" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="BM91" s="2">
-        <v>11.08</v>
-      </c>
-      <c r="BN91" s="2">
-        <v>20.62</v>
-      </c>
-    </row>
-    <row r="92" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+      <c r="O91" s="2">
+        <v>15.03</v>
+      </c>
+      <c r="P91" s="2">
+        <v>14.25</v>
+      </c>
+      <c r="Q91" s="2">
+        <v>15.44</v>
+      </c>
+      <c r="R91" s="2">
+        <v>12.75</v>
+      </c>
+      <c r="S91" s="2">
+        <v>13.52</v>
+      </c>
+      <c r="T91" s="2">
+        <v>12.75</v>
+      </c>
+      <c r="U91" s="2">
+        <v>14.27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
-        <v>44003.765560462962</v>
+        <v>44003.842037372684</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>317</v>
+        <v>166</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>318</v>
+        <v>167</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="CC92" s="2">
-        <v>25.57</v>
-      </c>
-      <c r="CD92" s="2">
-        <v>22.23</v>
-      </c>
-      <c r="CE92" s="2">
-        <v>26.48</v>
-      </c>
-      <c r="CF92" s="2">
-        <v>22.45</v>
-      </c>
-      <c r="CG92" s="2">
-        <v>50.37</v>
-      </c>
-      <c r="CH92" s="2">
-        <v>22.23</v>
-      </c>
-      <c r="CI92" s="2">
-        <v>24.83</v>
-      </c>
-    </row>
-    <row r="93" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+      <c r="CK92" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="CL92" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="CM92" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="CN92" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="CO92" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
-        <v>44003.826356574078</v>
+        <v>44004.314417800924</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="AC93" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="AD93" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="AE93" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="AF93" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="AG93" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="AH93" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="AI93" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="94" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="AT93" s="2">
+        <v>33.19</v>
+      </c>
+      <c r="AU93" s="2">
+        <v>56.89</v>
+      </c>
+      <c r="AV93" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="AW93" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="AX93" s="2">
+        <v>56.97</v>
+      </c>
+      <c r="AY93" s="2">
+        <v>33.19</v>
+      </c>
+      <c r="AZ93" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="94" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
-        <v>44003.828816400463</v>
+        <v>44004.320835856481</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>327</v>
+        <v>64</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="O94" s="2">
-        <v>15.03</v>
-      </c>
-      <c r="P94" s="2">
-        <v>14.25</v>
-      </c>
-      <c r="Q94" s="2">
-        <v>15.44</v>
-      </c>
-      <c r="R94" s="2">
-        <v>12.75</v>
-      </c>
-      <c r="S94" s="2">
-        <v>13.52</v>
-      </c>
-      <c r="T94" s="2">
-        <v>12.75</v>
-      </c>
-      <c r="U94" s="2">
-        <v>14.27</v>
+        <v>343</v>
+      </c>
+      <c r="CJ94" s="2">
+        <v>36</v>
       </c>
     </row>
     <row r="95" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
-        <v>44003.842037372684</v>
+        <v>44004.381272789353</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>166</v>
+        <v>335</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>167</v>
+        <v>336</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>171</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CK95" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="CL95" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="CL95" s="2" t="s">
-        <v>337</v>
-      </c>
       <c r="CM95" s="2" t="s">
-        <v>38</v>
+        <v>346</v>
       </c>
       <c r="CN95" s="2" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="CO95" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="1:103" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:103" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
-        <v>44004.314417800924</v>
+        <v>44004.599651261575</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>338</v>
+        <v>50</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>339</v>
+        <v>51</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="AT96" s="2">
-        <v>33.19</v>
-      </c>
-      <c r="AU96" s="2">
-        <v>56.89</v>
-      </c>
-      <c r="AV96" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="AW96" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="AX96" s="2">
-        <v>56.97</v>
-      </c>
-      <c r="AY96" s="2">
-        <v>33.19</v>
-      </c>
-      <c r="AZ96" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="97" spans="1:93" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+      <c r="CJ96" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" spans="1:93" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
-        <v>44004.320835856481</v>
+        <v>44004.681482037035</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>64</v>
+        <v>146</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>350</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="CJ97" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="98" spans="1:93" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+      <c r="H97" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="I97" s="2">
+        <v>20.3</v>
+      </c>
+      <c r="J97" s="2">
+        <v>10.73</v>
+      </c>
+      <c r="K97" s="2">
+        <v>8.39</v>
+      </c>
+      <c r="L97" s="2">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="M97" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="N97" s="2">
+        <v>9.6300000000000008</v>
+      </c>
+    </row>
+    <row r="98" spans="1:93" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
-        <v>44004.381272789353</v>
+        <v>44004.69246622685</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="C98" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="O98" s="2">
+        <v>22.06</v>
+      </c>
+      <c r="P98" s="2">
+        <v>24.72</v>
+      </c>
+      <c r="Q98" s="2">
+        <v>24.04</v>
+      </c>
+      <c r="R98" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S98" s="2">
+        <v>19.98</v>
+      </c>
+      <c r="T98" s="2">
+        <v>19.98</v>
+      </c>
+      <c r="U98" s="2">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:93" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>44004.696971238431</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="O99" s="2">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="P99" s="2">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="Q99" s="2">
+        <v>17.91</v>
+      </c>
+      <c r="R99" s="2">
+        <v>20.13</v>
+      </c>
+      <c r="S99" s="2">
+        <v>14.46</v>
+      </c>
+      <c r="T99" s="2">
+        <v>14.46</v>
+      </c>
+      <c r="U99" s="2">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:93" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>44004.698343009259</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E98" s="2" t="s">
+      <c r="D100" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="O100" s="2">
+        <v>24.68</v>
+      </c>
+      <c r="P100" s="2">
+        <v>26.03</v>
+      </c>
+      <c r="Q100" s="2">
+        <v>24.7</v>
+      </c>
+      <c r="R100" s="2">
+        <v>25.04</v>
+      </c>
+      <c r="S100" s="2">
+        <v>24.9</v>
+      </c>
+      <c r="T100" s="2">
+        <v>24.68</v>
+      </c>
+      <c r="U100" s="2">
+        <v>24.88</v>
+      </c>
+    </row>
+    <row r="101" spans="1:93" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>44004.722024062503</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F98" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="CK98" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="CL98" s="2" t="s">
+      <c r="F101" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="CK101" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="CL101" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CM101" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CN101" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="CO101" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="CM98" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="CN98" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="CO98" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="99" spans="1:93" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="3">
-        <v>44004.599651261575</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C99" s="2" t="s">
+    </row>
+    <row r="102" spans="1:93" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>44004.734386226854</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="CJ99" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="100" spans="1:93" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="3">
-        <v>44004.681482037035</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="H100" s="2">
-        <v>7.8</v>
-      </c>
-      <c r="I100" s="2">
-        <v>20.3</v>
-      </c>
-      <c r="J100" s="2">
-        <v>10.73</v>
-      </c>
-      <c r="K100" s="2">
-        <v>8.39</v>
-      </c>
-      <c r="L100" s="2">
-        <v>9.7799999999999994</v>
-      </c>
-      <c r="M100" s="2">
-        <v>7.8</v>
-      </c>
-      <c r="N100" s="2">
-        <v>9.6300000000000008</v>
-      </c>
-    </row>
-    <row r="101" spans="1:93" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="3">
-        <v>44004.69246622685</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="O101" s="2">
-        <v>22.06</v>
-      </c>
-      <c r="P101" s="2">
-        <v>24.72</v>
-      </c>
-      <c r="Q101" s="2">
-        <v>24.04</v>
-      </c>
-      <c r="R101" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S101" s="2">
-        <v>19.98</v>
-      </c>
-      <c r="T101" s="2">
-        <v>19.98</v>
-      </c>
-      <c r="U101" s="2">
-        <v>23.6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:93" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="3">
-        <v>44004.696971238431</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>357</v>
-      </c>
       <c r="D102" s="2" t="s">
-        <v>358</v>
+        <v>190</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="O102" s="2">
-        <v>18.079999999999998</v>
-      </c>
-      <c r="P102" s="2">
-        <v>18.309999999999999</v>
-      </c>
-      <c r="Q102" s="2">
-        <v>17.91</v>
-      </c>
-      <c r="R102" s="2">
-        <v>20.13</v>
-      </c>
-      <c r="S102" s="2">
-        <v>14.46</v>
-      </c>
-      <c r="T102" s="2">
-        <v>14.46</v>
-      </c>
-      <c r="U102" s="2">
-        <v>18.100000000000001</v>
-      </c>
-    </row>
-    <row r="103" spans="1:93" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="V102" s="2">
+        <v>59.87</v>
+      </c>
+      <c r="W102" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="X102" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y102" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="Z102" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AA102" s="2">
+        <v>59.87</v>
+      </c>
+      <c r="AB102" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="103" spans="1:93" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
-        <v>44004.698343009259</v>
+        <v>44004.87488304398</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="O103" s="2">
-        <v>24.68</v>
-      </c>
-      <c r="P103" s="2">
-        <v>26.03</v>
-      </c>
-      <c r="Q103" s="2">
-        <v>24.7</v>
-      </c>
-      <c r="R103" s="2">
-        <v>25.04</v>
-      </c>
-      <c r="S103" s="2">
-        <v>24.9</v>
-      </c>
-      <c r="T103" s="2">
-        <v>24.68</v>
-      </c>
-      <c r="U103" s="2">
-        <v>24.88</v>
-      </c>
-    </row>
-    <row r="104" spans="1:93" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+      <c r="CK103" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="CL103" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="CM103" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="CN103" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="CO103" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="104" spans="1:93" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
-        <v>44004.722024062503</v>
+        <v>44004.876177071761</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>189</v>
+        <v>365</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>190</v>
+        <v>366</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="CK104" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="CL104" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="CM104" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="CN104" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="CO104" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="105" spans="1:93" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+      <c r="O104" s="2">
+        <v>17.54</v>
+      </c>
+      <c r="P104" s="2">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="Q104" s="2">
+        <v>15.08</v>
+      </c>
+      <c r="R104" s="2">
+        <v>17.43</v>
+      </c>
+      <c r="S104" s="2">
+        <v>16.68</v>
+      </c>
+      <c r="T104" s="2">
+        <v>15.08</v>
+      </c>
+      <c r="U104" s="2">
+        <v>17.22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:93" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
-        <v>44004.734386226854</v>
+        <v>44004.894682708335</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>189</v>
+        <v>373</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="E105" s="2" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="V105" s="2">
-        <v>59.87</v>
-      </c>
-      <c r="W105" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="X105" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="Y105" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="Z105" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="AA105" s="2">
-        <v>59.87</v>
-      </c>
-      <c r="AB105" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="106" spans="1:93" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+      <c r="O105" s="2">
+        <v>28.9</v>
+      </c>
+      <c r="P105" s="2">
+        <v>33.49</v>
+      </c>
+      <c r="Q105" s="2">
+        <v>24.76</v>
+      </c>
+      <c r="R105" s="2">
+        <v>33.4</v>
+      </c>
+      <c r="S105" s="2">
+        <v>28.05</v>
+      </c>
+      <c r="T105" s="2">
+        <v>24.76</v>
+      </c>
+      <c r="U105" s="2">
+        <v>30.12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:93" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
-        <v>44004.87488304398</v>
+        <v>44004.902516180555</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="CK106" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="CL106" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="CM106" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="O106" s="2">
+        <v>34.71</v>
+      </c>
+      <c r="P106" s="2">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="Q106" s="2">
+        <v>28</v>
+      </c>
+      <c r="R106" s="2">
+        <v>34.15</v>
+      </c>
+      <c r="S106" s="2">
+        <v>27.8</v>
+      </c>
+      <c r="T106" s="2">
+        <v>27.8</v>
+      </c>
+      <c r="U106" s="2">
+        <v>32.28</v>
+      </c>
+    </row>
+    <row r="107" spans="1:93" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>44004.920291504633</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="CN106" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="CO106" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="107" spans="1:93" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="3">
-        <v>44004.876177071761</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>369</v>
-      </c>
       <c r="E107" s="2" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="O107" s="2">
-        <v>17.54</v>
-      </c>
-      <c r="P107" s="2">
-        <v>18.809999999999999</v>
-      </c>
-      <c r="Q107" s="2">
-        <v>15.08</v>
-      </c>
-      <c r="R107" s="2">
-        <v>17.43</v>
-      </c>
-      <c r="S107" s="2">
-        <v>16.68</v>
-      </c>
-      <c r="T107" s="2">
-        <v>15.08</v>
-      </c>
-      <c r="U107" s="2">
-        <v>17.22</v>
-      </c>
-    </row>
-    <row r="108" spans="1:93" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+      <c r="V107" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="W107" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="X107" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y107" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z107" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA107" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AB107" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="108" spans="1:93" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
-        <v>44004.894682708335</v>
+        <v>44004.922730763894</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="D108" s="2" t="s">
+        <v>366</v>
+      </c>
       <c r="E108" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="O108" s="2">
-        <v>28.9</v>
-      </c>
-      <c r="P108" s="2">
-        <v>33.49</v>
-      </c>
-      <c r="Q108" s="2">
-        <v>24.76</v>
-      </c>
-      <c r="R108" s="2">
-        <v>33.4</v>
-      </c>
-      <c r="S108" s="2">
-        <v>28.05</v>
-      </c>
-      <c r="T108" s="2">
-        <v>24.76</v>
-      </c>
-      <c r="U108" s="2">
-        <v>30.12</v>
-      </c>
-    </row>
-    <row r="109" spans="1:93" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="AT108" s="2">
+        <v>28.71</v>
+      </c>
+      <c r="AU108" s="2">
+        <v>30</v>
+      </c>
+      <c r="AV108" s="2">
+        <v>28.2</v>
+      </c>
+      <c r="AW108" s="2">
+        <v>31.18</v>
+      </c>
+      <c r="AX108" s="2">
+        <v>35.17</v>
+      </c>
+      <c r="AY108" s="2">
+        <v>28.2</v>
+      </c>
+      <c r="AZ108" s="2">
+        <v>29.96</v>
+      </c>
+    </row>
+    <row r="109" spans="1:93" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
-        <v>44004.902516180555</v>
+        <v>44005.165376643519</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>146</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="E109" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="H109" s="2">
+        <v>6.64</v>
+      </c>
+      <c r="I109" s="2">
+        <v>10.83</v>
+      </c>
+      <c r="J109" s="2">
+        <v>9</v>
+      </c>
+      <c r="K109" s="2">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="L109" s="2">
+        <v>7.92</v>
+      </c>
+      <c r="M109" s="2">
+        <v>6.64</v>
+      </c>
+      <c r="N109" s="2">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:93" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>44005.166560740741</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F109" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="O109" s="2">
-        <v>34.71</v>
-      </c>
-      <c r="P109" s="2">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="Q109" s="2">
-        <v>28</v>
-      </c>
-      <c r="R109" s="2">
-        <v>34.15</v>
-      </c>
-      <c r="S109" s="2">
-        <v>27.8</v>
-      </c>
-      <c r="T109" s="2">
-        <v>27.8</v>
-      </c>
-      <c r="U109" s="2">
-        <v>32.28</v>
-      </c>
-    </row>
-    <row r="110" spans="1:93" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="3">
-        <v>44004.920291504633</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E110" s="2" t="s">
+      <c r="F110" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="O110" s="2">
+        <v>20.99</v>
+      </c>
+      <c r="P110" s="2">
+        <v>29.83</v>
+      </c>
+      <c r="Q110" s="2">
+        <v>27.77</v>
+      </c>
+      <c r="R110" s="2">
+        <v>27.84</v>
+      </c>
+      <c r="S110" s="2">
+        <v>29.12</v>
+      </c>
+      <c r="T110" s="2">
+        <v>20.99</v>
+      </c>
+      <c r="U110" s="2">
+        <v>28.24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:93" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>44005.168444675925</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F110" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="V110" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="W110" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="X110" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="Y110" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z110" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA110" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="AB110" s="2" t="s">
+      <c r="F111" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="V111" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="W111" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="X111" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y111" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="Z111" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="AA111" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB111" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="112" spans="1:93" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>44005.169507847226</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>385</v>
-      </c>
-    </row>
-    <row r="111" spans="1:93" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="3">
-        <v>44004.922730763894</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="AT111" s="2">
-        <v>28.71</v>
-      </c>
-      <c r="AU111" s="2">
-        <v>30</v>
-      </c>
-      <c r="AV111" s="2">
-        <v>28.2</v>
-      </c>
-      <c r="AW111" s="2">
-        <v>31.18</v>
-      </c>
-      <c r="AX111" s="2">
-        <v>35.17</v>
-      </c>
-      <c r="AY111" s="2">
-        <v>28.2</v>
-      </c>
-      <c r="AZ111" s="2">
-        <v>29.96</v>
-      </c>
-    </row>
-    <row r="112" spans="1:93" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="3">
-        <v>44005.165376643519</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>388</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>146</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="H112" s="2">
-        <v>6.64</v>
-      </c>
-      <c r="I112" s="2">
-        <v>10.83</v>
-      </c>
-      <c r="J112" s="2">
-        <v>9</v>
-      </c>
-      <c r="K112" s="2">
-        <v>8.8699999999999992</v>
-      </c>
-      <c r="L112" s="2">
-        <v>7.92</v>
-      </c>
-      <c r="M112" s="2">
-        <v>6.64</v>
-      </c>
-      <c r="N112" s="2">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="113" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>394</v>
+      </c>
+      <c r="BH112" s="2">
+        <v>11.26</v>
+      </c>
+      <c r="BI112" s="2">
+        <v>9.36</v>
+      </c>
+      <c r="BJ112" s="2">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="BK112" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="BL112" s="2">
+        <v>8.08</v>
+      </c>
+      <c r="BM112" s="2">
+        <v>8.08</v>
+      </c>
+      <c r="BN112" s="2">
+        <v>9.5399999999999991</v>
+      </c>
+    </row>
+    <row r="113" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
-        <v>44005.166560740741</v>
+        <v>44005.170540983796</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>146</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E113" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="BV113" s="2">
+        <v>39.72</v>
+      </c>
+      <c r="BW113" s="2">
+        <v>30.78</v>
+      </c>
+      <c r="BX113" s="2">
+        <v>26.67</v>
+      </c>
+      <c r="BY113" s="2">
+        <v>24.84</v>
+      </c>
+      <c r="BZ113" s="2">
+        <v>31.62</v>
+      </c>
+      <c r="CA113" s="2">
+        <v>24.84</v>
+      </c>
+      <c r="CB113" s="2">
+        <v>29.69</v>
+      </c>
+    </row>
+    <row r="114" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>44005.264779050922</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F113" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="O113" s="2">
-        <v>20.99</v>
-      </c>
-      <c r="P113" s="2">
-        <v>29.83</v>
-      </c>
-      <c r="Q113" s="2">
-        <v>27.77</v>
-      </c>
-      <c r="R113" s="2">
-        <v>27.84</v>
-      </c>
-      <c r="S113" s="2">
-        <v>29.12</v>
-      </c>
-      <c r="T113" s="2">
-        <v>20.99</v>
-      </c>
-      <c r="U113" s="2">
-        <v>28.24</v>
-      </c>
-    </row>
-    <row r="114" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="3">
-        <v>44005.168444675925</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F114" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="V114" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="W114" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="X114" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="Y114" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="Z114" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA114" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="AB114" s="2" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="115" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="O114" s="2">
+        <v>22.68</v>
+      </c>
+      <c r="P114" s="2">
+        <v>18.7</v>
+      </c>
+      <c r="Q114" s="2">
+        <v>20.239999999999998</v>
+      </c>
+      <c r="R114" s="2">
+        <v>25.57</v>
+      </c>
+      <c r="S114" s="2">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="T114" s="2">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="U114" s="2">
+        <v>20.54</v>
+      </c>
+    </row>
+    <row r="115" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
-        <v>44005.169507847226</v>
+        <v>44005.322182118056</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>146</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="BH115" s="2">
-        <v>11.26</v>
-      </c>
-      <c r="BI115" s="2">
-        <v>9.36</v>
-      </c>
-      <c r="BJ115" s="2">
-        <v>9.9700000000000006</v>
-      </c>
-      <c r="BK115" s="2">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="BL115" s="2">
-        <v>8.08</v>
-      </c>
-      <c r="BM115" s="2">
-        <v>8.08</v>
-      </c>
-      <c r="BN115" s="2">
-        <v>9.5399999999999991</v>
-      </c>
-    </row>
-    <row r="116" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="3">
-        <v>44005.170540983796</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="BV116" s="2">
-        <v>39.72</v>
-      </c>
-      <c r="BW116" s="2">
-        <v>30.78</v>
-      </c>
-      <c r="BX116" s="2">
-        <v>26.67</v>
-      </c>
-      <c r="BY116" s="2">
-        <v>24.84</v>
-      </c>
-      <c r="BZ116" s="2">
-        <v>31.62</v>
-      </c>
-      <c r="CA116" s="2">
-        <v>24.84</v>
-      </c>
-      <c r="CB116" s="2">
-        <v>29.69</v>
-      </c>
-    </row>
-    <row r="117" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="3">
-        <v>44005.264779050922</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F117" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="O117" s="2">
-        <v>22.68</v>
-      </c>
-      <c r="P117" s="2">
-        <v>18.7</v>
-      </c>
-      <c r="Q117" s="2">
-        <v>20.239999999999998</v>
-      </c>
-      <c r="R117" s="2">
-        <v>25.57</v>
-      </c>
-      <c r="S117" s="2">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="T117" s="2">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="U117" s="2">
-        <v>20.54</v>
-      </c>
-    </row>
-    <row r="118" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="3">
-        <v>44005.322182118056</v>
-      </c>
-      <c r="B118" s="2" t="s">
+      <c r="G115" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="CJ118" s="2" t="s">
+      <c r="CJ115" s="2" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:DE118" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Andy Nicholls"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:DE115" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -6477,77 +6342,74 @@
     <hyperlink ref="F45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
     <hyperlink ref="F46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
     <hyperlink ref="F47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="F48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="F49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="F50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="F51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="F52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="F53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="F54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="F55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="F56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="F57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="F58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="F59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="F60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="F61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="F62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="F63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="F64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="F65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="F66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="F67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="F68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="F69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="F70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="F71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="F72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="F73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="F74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="F75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="F76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="F77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="F78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="F79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="F80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="F81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="F82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="F83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="F84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="F85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="F86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="F87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="F88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="F89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="F90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="F91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="F92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="F93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="F94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="F95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="F96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="F97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="F98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="F99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="F100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="F101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="F102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="F103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="F104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="F105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="F106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="F107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="F108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="F109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="F110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="F111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="F112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="F113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="F114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="F115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="F116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="F117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="F118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="F48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="F49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="F50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="F51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="F52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="F53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="F54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="F55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="F56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="F57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="F58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="F59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="F60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="F61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="F62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="F63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="F64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="F65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="F66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="F67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="F68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="F69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="F70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="F71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="F72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="F73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="F74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="F75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="F76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="F77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="F78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="F79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="F80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="F81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="F82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="F83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="F84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="F85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="F86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="F87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="F88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="F89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="F90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="F91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="F92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="F93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="F94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="F95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="F96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="F97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="F98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="F99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="F100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="F101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="F102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="F103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="F104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="F105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="F106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="F107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="F108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="F109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="F110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="F111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="F112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="F113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="F114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="F115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
